--- a/Документация/TestCase.xlsx
+++ b/Документация/TestCase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Универ\ТРиТПО\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Универ\ТРиТПО\productList\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC-0" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t xml:space="preserve"> ID</t>
   </si>
@@ -150,18 +150,12 @@
     <t>1) Установить приложение на любое другое устройство с операционной системой Андроид версии отлинчой от 4.2.2</t>
   </si>
   <si>
-    <t>2) Выполнить пункты в ТС-01, ТС-03, ТС-04 и ТС-05</t>
-  </si>
-  <si>
     <t>Переход на экран "Списки покупок"</t>
   </si>
   <si>
     <t>1) В главном меню нажать на кнопку "Мои списки"</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Появится новый экран со всеми созданными ранее списками, в списке будет только что созданный список</t>
   </si>
   <si>
@@ -189,9 +183,6 @@
     <t>Интерфейс приятен и понятен пользователю</t>
   </si>
   <si>
-    <t>3) Ввести в поле "Название списка" Имя для нового списка.</t>
-  </si>
-  <si>
     <t>"Открыть список"</t>
   </si>
   <si>
@@ -207,19 +198,25 @@
     <t>5) Нажать на кнопку "Обновить"</t>
   </si>
   <si>
-    <t>3) В новом окне заполнить поля "Категория", "Название продукта", "Приблизительная стоимость"</t>
-  </si>
-  <si>
     <t>1) В окне "Мои списки покупок" нажать и держать на списке</t>
   </si>
   <si>
-    <t>1) По очереди открыть все списки покупок и сложить все стоимости товаров</t>
-  </si>
-  <si>
-    <t>2) Открыть окно статистики и проверить совпадают ли значения с полями "Общая стоимость всех товаров", "Средняя стоимость товара" с посчитанными в списке покупок</t>
-  </si>
-  <si>
-    <t>Значения совпадают совпадают</t>
+    <t>3) Ввести в поле "Название списка" имя для нового списка "Список покупок 1".</t>
+  </si>
+  <si>
+    <t>3) В поле категория ввести значение "Молочные", в поле название продукта "Творог", в поле цена "8 500",</t>
+  </si>
+  <si>
+    <t>5) Перезапустить приложение</t>
+  </si>
+  <si>
+    <t>1) Нажать на кнопку "Статистика" на главном экране</t>
+  </si>
+  <si>
+    <t>2) Открыть окно статистики и проверить совпадают ли значения с полями "Общая стоимость всех товаров", "Средняя стоимость товара"</t>
+  </si>
+  <si>
+    <t>Значения поля "Общая стоимость всех товаров" должно быть равно 12 500, а значение "Средняя стоимость товара" должно быть 6 250</t>
   </si>
 </sst>
 </file>
@@ -315,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -360,9 +357,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -372,29 +366,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,18 +693,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -728,127 +732,109 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>44</v>
-      </c>
+      <c r="D6" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="D9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>44</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>44</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>44</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
@@ -857,8 +843,8 @@
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -873,22 +859,24 @@
     <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -899,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F29" sqref="E5:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,13 +907,19 @@
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>0</v>
@@ -947,201 +941,195 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="1"/>
-      <c r="F5" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21" t="s">
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="23"/>
+      <c r="D6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="23"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="15"/>
-      <c r="F10" s="17"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>44</v>
       </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="23"/>
+      <c r="C15" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="7" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="25"/>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="23"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="25"/>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="23"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="25"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="1" t="s">
+      <c r="D19" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="23"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="23"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="E23" s="15"/>
-      <c r="F23" s="17"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="23"/>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="25"/>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -1154,14 +1142,10 @@
         <v>35</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>44</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
@@ -1169,35 +1153,31 @@
       <c r="C25" s="6"/>
       <c r="D25" s="4"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="17"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>44</v>
-      </c>
+      <c r="C26" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="25"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="23"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
@@ -1205,48 +1185,44 @@
       <c r="C28" s="6"/>
       <c r="D28" s="12"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="17"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="23"/>
-    </row>
-    <row r="31" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="23"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="13"/>
       <c r="C32" s="7"/>
       <c r="D32" s="4"/>
@@ -1341,9 +1317,24 @@
     <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="F5:F9"/>
     <mergeCell ref="B11:B17"/>
@@ -1354,21 +1345,6 @@
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="B6:B9"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Документация/TestCase.xlsx
+++ b/Документация/TestCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="TC-0" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t xml:space="preserve"> ID</t>
   </si>
@@ -210,13 +210,28 @@
     <t>5) Перезапустить приложение</t>
   </si>
   <si>
-    <t>1) Нажать на кнопку "Статистика" на главном экране</t>
-  </si>
-  <si>
-    <t>2) Открыть окно статистики и проверить совпадают ли значения с полями "Общая стоимость всех товаров", "Средняя стоимость товара"</t>
-  </si>
-  <si>
-    <t>Значения поля "Общая стоимость всех товаров" должно быть равно 12 500, а значение "Средняя стоимость товара" должно быть 6 250</t>
+    <t>1) Нажать на кнопку "Мои списки" на главном экране</t>
+  </si>
+  <si>
+    <t>2) Нажать и держать на списке "Список покупок 1"</t>
+  </si>
+  <si>
+    <t>3) Вернуться на главный экран и нажать на кнопку "Статистика"</t>
+  </si>
+  <si>
+    <t>4) Посмотреть значения</t>
+  </si>
+  <si>
+    <t>Количество продуктов = 0</t>
+  </si>
+  <si>
+    <t>Количество списков = 0</t>
+  </si>
+  <si>
+    <t>Общая стоимость всех продуктов =     8 500</t>
+  </si>
+  <si>
+    <t>Средняя стоимость всех продуктов = 4 250</t>
   </si>
 </sst>
 </file>
@@ -312,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -320,7 +335,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -372,23 +386,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,164 +713,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="11"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="25"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="25"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="25"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="19" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="25"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="26"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="26"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -860,11 +880,6 @@
     <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="F14:F16"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B11:B12"/>
@@ -877,6 +892,11 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="F14:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -887,448 +907,455 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F29" sqref="E5:F31"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="4" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="1"/>
-      <c r="F5" s="25"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="25"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="25"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="25"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="25"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="25"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="25"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="25"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="10" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="25"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="22"/>
       <c r="C15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="25"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="22"/>
       <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="25"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="23"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="25"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="22"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="25"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="20" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="25"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="18" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="25"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="25"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="22"/>
       <c r="C23" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="25"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="25"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="25"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="27"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="27"/>
+    </row>
+    <row r="31" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="27"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="25"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="25"/>
-    </row>
-    <row r="31" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="25"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="4"/>
+      <c r="D32" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="27"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="27"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="4"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="4"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="3"/>
     </row>
     <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="D19:D23"/>
@@ -1345,6 +1372,18 @@
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="B6:B9"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
